--- a/data/trans_camb/P16A06-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.08966963668414277</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.732975913082999</v>
+        <v>2.732975913082997</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.3301259683797263</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.797853131794003</v>
+        <v>-1.711456504850868</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.137651098977848</v>
+        <v>-1.207547543819846</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6952836551848097</v>
+        <v>0.6729874473161248</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.081504692187993</v>
+        <v>-2.235294407004114</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.857133529652082</v>
+        <v>-2.643240218637365</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.03548930140494276</v>
+        <v>-0.07237927159046886</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.400205939822374</v>
+        <v>-1.21922501381844</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.235454254626121</v>
+        <v>-1.202922732382382</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.270460357490395</v>
+        <v>1.129022660778723</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.231472976746035</v>
+        <v>2.25821850161514</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.007207631880916</v>
+        <v>3.086577698206708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.181619305658359</v>
+        <v>5.184947937536065</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.031368820211453</v>
+        <v>3.93529710554334</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.841995515862297</v>
+        <v>2.790723428315185</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.279943972877018</v>
+        <v>5.337027005313222</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.145315388289486</v>
+        <v>2.282736158740641</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.121283205669825</v>
+        <v>2.180213206236044</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.68257626015774</v>
+        <v>4.528912454044116</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.02955311986956087</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9007281365984111</v>
+        <v>0.9007281365984107</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1363851102073463</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6586377323257612</v>
+        <v>-0.6397306015685091</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.442128830108949</v>
+        <v>-0.4448197996529834</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1214629148115347</v>
+        <v>0.1273135126240892</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5530420415094228</v>
+        <v>-0.5776705380580399</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6323194910771331</v>
+        <v>-0.5711395021258859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03519113880849238</v>
+        <v>-0.08066954692583832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4606367546396082</v>
+        <v>-0.437729315111247</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3921352845628214</v>
+        <v>-0.3975302335849665</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3320719621971092</v>
+        <v>0.2952335778789169</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.146641977731169</v>
+        <v>2.080983449424003</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.745673741853653</v>
+        <v>2.707813836285061</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.184973371484237</v>
+        <v>4.166711516825027</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.426740606437689</v>
+        <v>2.181074575295633</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.638535138734609</v>
+        <v>1.642109630371665</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.252542215341156</v>
+        <v>3.506865207393514</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.319303039244912</v>
+        <v>1.446348539096505</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.352959796554225</v>
+        <v>1.352780405674245</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.818768085961254</v>
+        <v>2.725590220869723</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.1118734905814146</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.113992047930625</v>
+        <v>2.113992047930624</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.08912527575519157</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.886304149895438</v>
+        <v>-1.844911581630821</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.179344086425558</v>
+        <v>-2.002575270587618</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2136554246676768</v>
+        <v>-0.1606870309256831</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.929290784160336</v>
+        <v>-2.13183756951912</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9988018283667041</v>
+        <v>-0.9786300694242989</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.446800546641013</v>
+        <v>3.463917633648604</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.292060991665487</v>
+        <v>-1.254185270689003</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.7853397765851813</v>
+        <v>-1.003464505472959</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.229716526297601</v>
+        <v>2.28287705177631</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.550588176060169</v>
+        <v>2.741276992226581</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.079235446713663</v>
+        <v>2.044816144288014</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.530339421266543</v>
+        <v>4.494995462152851</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.394726426862796</v>
+        <v>2.079588828489778</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.943105743976095</v>
+        <v>3.940905781129254</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.704393370512193</v>
+        <v>8.789055749292896</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.851076019236627</v>
+        <v>1.953509794081522</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.22916270581817</v>
+        <v>2.336586883914608</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.48547925693039</v>
+        <v>5.655540571828541</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7323394608175013</v>
+        <v>-0.6883598117979579</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7317616822443845</v>
+        <v>-0.7231327526330154</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1348759858158902</v>
+        <v>-0.1434967735501536</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6625482100090819</v>
+        <v>-0.726595767902768</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3975434300456098</v>
+        <v>-0.4013891852736607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6651040644360628</v>
+        <v>0.8349759515010663</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5087709369638922</v>
+        <v>-0.4589088480782028</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3274507465994803</v>
+        <v>-0.3496676306649845</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7068120617766818</v>
+        <v>0.713372429868099</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.472645076573262</v>
+        <v>2.721432833376753</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.198750045230915</v>
+        <v>2.085630526939093</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.960441490475997</v>
+        <v>4.376164285438346</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.647941942013981</v>
+        <v>2.02453495387806</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.40383057980217</v>
+        <v>3.728851518082346</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8.140134208329435</v>
+        <v>7.638376857763983</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.551890814013041</v>
+        <v>1.609589036150288</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.713023523608361</v>
+        <v>1.827773776496922</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4.418868270294924</v>
+        <v>4.884014077135975</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.972819393449206</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.385458386175476</v>
+        <v>4.385458386175475</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.8293426148355751</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03152195663574666</v>
+        <v>0.1090179732182128</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5347113028570563</v>
+        <v>-0.6081056400953017</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.102348052270816</v>
+        <v>2.25462574734438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.690681570800786</v>
+        <v>-2.958573477311707</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.2021912898520856</v>
+        <v>-0.2230848828236407</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.170350346274008</v>
+        <v>3.316917114476765</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.01208824098014143</v>
+        <v>-0.05249473437997008</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.162324744313263</v>
+        <v>0.2564556408244415</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.750936560694985</v>
+        <v>3.486213417803794</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.52667207551053</v>
+        <v>3.507956010478867</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.552631994778526</v>
+        <v>2.56533185177064</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.950647301852775</v>
+        <v>6.977819132712379</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.240982814295361</v>
+        <v>4.703075636137987</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.99270952381722</v>
+        <v>10.38509126383074</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.24988609669913</v>
+        <v>12.79127758329034</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.271284148157404</v>
+        <v>3.251214336545152</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.702456404200447</v>
+        <v>3.820218248237805</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.802599150707912</v>
+        <v>7.689055580254263</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.6780798454024681</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3.056775969456545</v>
+        <v>3.056775969456544</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2074709921985412</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1313809364038932</v>
+        <v>-0.1046778669788477</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3201631791112897</v>
+        <v>-0.3921543141083578</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.8590414120009654</v>
+        <v>0.916526682812519</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5948156781495579</v>
+        <v>-0.5601074801926625</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1611845344676242</v>
+        <v>-0.08943466311918724</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4121009514427012</v>
+        <v>0.3703906198387151</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.04843330381497227</v>
+        <v>-0.03759730464510609</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.008318618750986089</v>
+        <v>0.07821738359023694</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.191429343359299</v>
+        <v>1.110521065460017</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.198211375153238</v>
+        <v>3.90028803246256</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.969927198464385</v>
+        <v>2.751892847328869</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>8.204456280066422</v>
+        <v>8.277255508244009</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.176685147156229</v>
+        <v>3.019962550133776</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.169039471753893</v>
+        <v>6.089874072222306</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.069577367654389</v>
+        <v>5.95141990596323</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.362277561036577</v>
+        <v>2.485707178017656</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.548345207547523</v>
+        <v>2.834152609903734</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>5.723870401433054</v>
+        <v>5.633612982828816</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>2.042757694003381</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.808344455946559</v>
+        <v>3.808344455946558</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.1119108130780672</v>
@@ -1306,7 +1306,7 @@
         <v>1.364192148886483</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.713991458359023</v>
+        <v>3.713991458359024</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.009783383463083</v>
+        <v>-1.886615775035437</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6502429223327312</v>
+        <v>-0.6290133002611139</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.038222674257554</v>
+        <v>1.96033508813418</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.199326615249129</v>
+        <v>-1.220211676654251</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06198406025920609</v>
+        <v>-0.3024262090322515</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.675406266919224</v>
+        <v>1.971311534301448</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.146753571488663</v>
+        <v>-1.131690838719591</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2232232125420444</v>
+        <v>0.1735543364704304</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.505133648736928</v>
+        <v>2.435857216177848</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4460930778550016</v>
+        <v>0.5734968276127279</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.201945202227098</v>
+        <v>2.175654341845909</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.117110355596038</v>
+        <v>5.237880602013371</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.813762186995111</v>
+        <v>2.810812774205897</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.118056631185604</v>
+        <v>3.981014812327839</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.437841762351031</v>
+        <v>5.638185594644469</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.060394994617224</v>
+        <v>1.04716274832108</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.489553099411192</v>
+        <v>2.58365858494359</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.96296130746407</v>
+        <v>4.938468591276454</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6484778316546014</v>
+        <v>-0.6656905774613726</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.225023496977788</v>
+        <v>-0.214339389073358</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6302182492657957</v>
+        <v>0.6245210376811035</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2912978378163565</v>
+        <v>-0.2926179407505123</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.000990289703461496</v>
+        <v>-0.08385473489714232</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3383014389929754</v>
+        <v>0.4101603220139802</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3558213669475924</v>
+        <v>-0.348932458205194</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.05767694889482625</v>
+        <v>0.03438708390469656</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7297265895873125</v>
+        <v>0.6827776203332678</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3207789960241063</v>
+        <v>0.3537596622791781</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.283480625188162</v>
+        <v>1.191188211257688</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.81025959511376</v>
+        <v>2.857163247564848</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.147141893067204</v>
+        <v>1.183592091123264</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.75372340743044</v>
+        <v>1.597052712966725</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.22500369816375</v>
+        <v>2.291973796461841</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4394542109364688</v>
+        <v>0.4538268365641231</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.086433405633812</v>
+        <v>1.099859584558362</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.279336275845637</v>
+        <v>2.250836549438117</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.1171884005146773</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.307380515295979</v>
+        <v>2.307380515295978</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.887494338965869</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.25092539449771</v>
+        <v>-3.164318877644958</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.405946763056992</v>
+        <v>-2.384594321924943</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.2585596524089825</v>
+        <v>-0.2355190058305909</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.228121510092108</v>
+        <v>2.310167632063171</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.380001914365705</v>
+        <v>3.351799342493015</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.846600239049394</v>
+        <v>8.837292332357549</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7466976855630526</v>
+        <v>0.8641731245210921</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.594210596737545</v>
+        <v>1.557302551852264</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.988567906072849</v>
+        <v>5.856119982737873</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.139869980607249</v>
+        <v>1.180466041754483</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.273810965100549</v>
+        <v>2.299243941945192</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.698187351761128</v>
+        <v>4.966108986741713</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.584544138126528</v>
+        <v>7.624679498372649</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.845361086810218</v>
+        <v>8.934151975477747</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.13066920575284</v>
+        <v>13.88707429464214</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.343391226767324</v>
+        <v>4.309129860291012</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.353572466933843</v>
+        <v>5.301135223218806</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.686503984199829</v>
+        <v>9.582909705250707</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.03979741495073971</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7835910330134138</v>
+        <v>0.7835910330134134</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>1.319694139944382</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7421810827839629</v>
+        <v>-0.7188419109470462</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5371837895252407</v>
+        <v>-0.502864962100707</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.07711695793269645</v>
+        <v>-0.1173727082046958</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4503179811203683</v>
+        <v>0.4310776458944467</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.6514515781371285</v>
+        <v>0.661527620871581</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.600712819730762</v>
+        <v>1.648878227284197</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1566966331344942</v>
+        <v>0.1795827295661869</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3726822445652406</v>
+        <v>0.3288200654139055</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.305796372475206</v>
+        <v>1.296671565047551</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8108002762308707</v>
+        <v>0.8135302532001119</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.534195816247305</v>
+        <v>1.436000011427562</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.212914060863285</v>
+        <v>2.867463654177134</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.02941069848846</v>
+        <v>3.046108689243835</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>3.478276757311523</v>
+        <v>3.503682456931498</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>5.868101015927699</v>
+        <v>5.600583848515532</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.73204684490549</v>
+        <v>1.660227856213661</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.153652925355397</v>
+        <v>2.063594004030164</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>4.124754737105508</v>
+        <v>3.946385035168456</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>3.557179639868038</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>6.069649085062966</v>
+        <v>6.069649085062963</v>
       </c>
     </row>
     <row r="35">
@@ -1749,25 +1749,25 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.506321778705301</v>
+        <v>1.526592761205869</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.7960661407559287</v>
+        <v>0.6379046337154932</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.896257002525977</v>
+        <v>2.09519377475488</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.551454038962447</v>
+        <v>4.718211198962395</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.4525239804190967</v>
+        <v>0.5305835357853721</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.7375620014161</v>
+        <v>1.712658923927327</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.141104886247695</v>
+        <v>4.232100845166388</v>
       </c>
     </row>
     <row r="36">
@@ -1779,28 +1779,28 @@
       </c>
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="n">
-        <v>2.608400848700818</v>
+        <v>2.924339262994541</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.599329053331886</v>
+        <v>9.769756597571403</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.044247552072297</v>
+        <v>4.868820381401038</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.931644514893581</v>
+        <v>6.864969020210208</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.32491989159641</v>
+        <v>9.372332372111568</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.955221371745948</v>
+        <v>4.089341659797197</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.406207161276106</v>
+        <v>5.624105299212043</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.238836294803036</v>
+        <v>8.060083023020486</v>
       </c>
     </row>
     <row r="37">
@@ -1837,7 +1837,7 @@
         <v>0.7653214080203364</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1.305875118565016</v>
+        <v>1.305875118565015</v>
       </c>
     </row>
     <row r="38">
@@ -1851,22 +1851,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.1069281918803359</v>
+        <v>0.08995685451023526</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2741161049583186</v>
+        <v>0.3314181244085632</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.671212120164021</v>
+        <v>0.6641004332381273</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08569975855917189</v>
+        <v>0.09282284490036734</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.3186696886297622</v>
+        <v>0.3179359753369044</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.7498592787462586</v>
+        <v>0.7674904443823028</v>
       </c>
     </row>
     <row r="39">
@@ -1880,22 +1880,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>1.022803535976489</v>
+        <v>0.9967725705386552</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.472774510886103</v>
+        <v>1.459027018715362</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.968919138628699</v>
+        <v>1.891018237182568</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.017570989365684</v>
+        <v>1.023295191292514</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.401096582335294</v>
+        <v>1.438605237406658</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.146099057187931</v>
+        <v>1.994641665167749</v>
       </c>
     </row>
     <row r="40">
@@ -1916,7 +1916,7 @@
         <v>0.6730000846821599</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.254726131197144</v>
+        <v>3.254726131197143</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.139446989069516</v>
@@ -1925,7 +1925,7 @@
         <v>3.381423999028272</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>6.272297436287203</v>
+        <v>6.272297436287201</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.093669896878137</v>
@@ -1934,7 +1934,7 @@
         <v>2.060886395834515</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>4.815471517843624</v>
+        <v>4.815471517843625</v>
       </c>
     </row>
     <row r="41">
@@ -1945,31 +1945,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.6885549280236799</v>
+        <v>-0.7497876781742834</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.1137390650811154</v>
+        <v>-0.09641093020643039</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.431730774269856</v>
+        <v>2.436739254443247</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.034906369458421</v>
+        <v>1.06001570836119</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.157078101784093</v>
+        <v>2.272632847111656</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>5.17726764597777</v>
+        <v>5.159701126106373</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.4261556830112551</v>
+        <v>0.4622567526308289</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.327669808566323</v>
+        <v>1.415263388706228</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.117182815020883</v>
+        <v>4.117734859631029</v>
       </c>
     </row>
     <row r="42">
@@ -1980,31 +1980,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.7242777136618492</v>
+        <v>0.6726315997064303</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.408735759646517</v>
+        <v>1.389118162296196</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.153716376613495</v>
+        <v>4.157527469569997</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.133721811318571</v>
+        <v>3.144861137439239</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.524179306825202</v>
+        <v>4.556960022849292</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.250075260495514</v>
+        <v>7.33863717151462</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.738626818056917</v>
+        <v>1.780580037937777</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.716585516813878</v>
+        <v>2.759156157605229</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.518888961915218</v>
+        <v>5.53639083733299</v>
       </c>
     </row>
     <row r="43">
@@ -2021,7 +2021,7 @@
         <v>0.3388833629491219</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>1.638889150124517</v>
+        <v>1.638889150124516</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.5137702850112252</v>
@@ -2039,7 +2039,7 @@
         <v>0.6663231642446783</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.556932116969215</v>
+        <v>1.556932116969216</v>
       </c>
     </row>
     <row r="44">
@@ -2050,31 +2050,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2995879803714097</v>
+        <v>-0.3160332703738146</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.07011850914034594</v>
+        <v>-0.04876891688071702</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.9890891804472161</v>
+        <v>1.029100509812245</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2231337344806473</v>
+        <v>0.2210341038339629</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.4648925028715603</v>
+        <v>0.4541822090428094</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.074455075039712</v>
+        <v>1.071695121668244</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1277686439569513</v>
+        <v>0.1285907963745622</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.3901748904902824</v>
+        <v>0.4110691388973788</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.18112570242142</v>
+        <v>1.207159289067254</v>
       </c>
     </row>
     <row r="45">
@@ -2085,31 +2085,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4358033463357155</v>
+        <v>0.3960749298288047</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.847148807868873</v>
+        <v>0.819252393682005</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.511792983042988</v>
+        <v>2.628541313631201</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.84679946309575</v>
+        <v>0.8292853278029279</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.240192304321783</v>
+        <v>1.20287531105639</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.004263392971398</v>
+        <v>2.024421949266388</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6112356852871824</v>
+        <v>0.621460036202659</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.9511092844821241</v>
+        <v>0.9863225686536731</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.003821562830373</v>
+        <v>2.021742566558132</v>
       </c>
     </row>
     <row r="46">
